--- a/sample/src/main/resources/development/data.xlsx
+++ b/sample/src/main/resources/development/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="14952" windowHeight="8676"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="14955" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -676,12 +676,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -723,7 +726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,7 +761,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -969,14 +972,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -988,7 +993,7 @@
       <c r="D1" s="4"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="14.4">
+    <row r="3" spans="2:8" ht="14.25">
       <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
@@ -1011,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.4">
+    <row r="4" spans="2:8" ht="14.25">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.4">
+    <row r="5" spans="2:8" ht="14.25">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.4">
+    <row r="6" spans="2:8" ht="14.25">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1085,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.4">
+    <row r="7" spans="2:8" ht="14.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="14.4">
+    <row r="8" spans="2:8" ht="14.25">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1126,7 +1131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="14.4">
+    <row r="9" spans="2:8" ht="14.25">
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1149,7 +1154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="14.4">
+    <row r="10" spans="2:8" ht="14.25">
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="14.4">
+    <row r="11" spans="2:8" ht="14.25">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="14.4">
+    <row r="12" spans="2:8" ht="14.25">
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1218,7 +1223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="14.4">
+    <row r="13" spans="2:8" ht="14.25">
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="14.4">
+    <row r="14" spans="2:8" ht="14.25">
       <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1264,7 +1269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="14.4">
+    <row r="15" spans="2:8" ht="14.25">
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="14.4">
+    <row r="16" spans="2:8" ht="14.25">
       <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1310,7 +1315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="14.4">
+    <row r="17" spans="2:8" ht="14.25">
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="14.4">
+    <row r="18" spans="2:8" ht="14.25">
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
@@ -1356,7 +1361,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="14.4">
+    <row r="19" spans="2:8" ht="14.25">
       <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
@@ -1379,7 +1384,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="14.4">
+    <row r="20" spans="2:8" ht="14.25">
       <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="14.4">
+    <row r="21" spans="2:8" ht="14.25">
       <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="14.4">
+    <row r="22" spans="2:8" ht="14.25">
       <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
@@ -1448,7 +1453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="14.4">
+    <row r="23" spans="2:8" ht="14.25">
       <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +1476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="14.4">
+    <row r="24" spans="2:8" ht="14.25">
       <c r="B24" s="5" t="s">
         <v>42</v>
       </c>
@@ -1494,7 +1499,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="14.4">
+    <row r="25" spans="2:8" ht="14.25">
       <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
@@ -1517,7 +1522,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="14.4">
+    <row r="26" spans="2:8" ht="14.25">
       <c r="B26" s="5" t="s">
         <v>47</v>
       </c>
@@ -1540,7 +1545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="14.4">
+    <row r="27" spans="2:8" ht="14.25">
       <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.4">
+    <row r="28" spans="2:8" ht="14.25">
       <c r="B28" s="5" t="s">
         <v>50</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="14.4">
+    <row r="29" spans="2:8" ht="14.25">
       <c r="B29" s="5" t="s">
         <v>52</v>
       </c>
@@ -1609,7 +1614,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="14.4">
+    <row r="30" spans="2:8" ht="14.25">
       <c r="B30" s="5" t="s">
         <v>54</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="14.4">
+    <row r="31" spans="2:8" ht="14.25">
       <c r="B31" s="5" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +1660,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="14.4">
+    <row r="32" spans="2:8" ht="14.25">
       <c r="B32" s="5" t="s">
         <v>54</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="14.4">
+    <row r="33" spans="2:8" ht="14.25">
       <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
@@ -1701,7 +1706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="14.4">
+    <row r="34" spans="2:8" ht="14.25">
       <c r="B34" s="5" t="s">
         <v>60</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="14.4">
+    <row r="35" spans="2:8" ht="14.25">
       <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
@@ -1747,7 +1752,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="14.4">
+    <row r="36" spans="2:8" ht="14.25">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
@@ -1770,7 +1775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="14.4">
+    <row r="37" spans="2:8" ht="14.25">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
@@ -1793,7 +1798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="14.4">
+    <row r="38" spans="2:8" ht="14.25">
       <c r="B38" s="5" t="s">
         <v>65</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="14.4">
+    <row r="39" spans="2:8" ht="14.25">
       <c r="B39" s="5" t="s">
         <v>68</v>
       </c>
@@ -1839,7 +1844,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="14.4">
+    <row r="40" spans="2:8" ht="14.25">
       <c r="B40" s="5" t="s">
         <v>70</v>
       </c>
@@ -1862,7 +1867,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="14.4">
+    <row r="41" spans="2:8" ht="14.25">
       <c r="B41" s="5" t="s">
         <v>72</v>
       </c>
@@ -1885,7 +1890,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="14.4">
+    <row r="42" spans="2:8" ht="14.25">
       <c r="B42" s="5" t="s">
         <v>72</v>
       </c>
